--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gal-Galr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gal-Galr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,25 +522,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.020062</v>
+        <v>0.03644533333333334</v>
       </c>
       <c r="H2">
-        <v>3.060186</v>
+        <v>0.109336</v>
       </c>
       <c r="I2">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="J2">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,33 +549,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1321586666666667</v>
+        <v>0.05571033333333333</v>
       </c>
       <c r="N2">
-        <v>0.396476</v>
+        <v>0.167131</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.09700855792269546</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.09700855792269544</v>
       </c>
       <c r="Q2">
-        <v>0.1348100338373333</v>
+        <v>0.002030381668444445</v>
       </c>
       <c r="R2">
-        <v>1.213290304536</v>
+        <v>0.018273435016</v>
       </c>
       <c r="S2">
-        <v>0.02710251114301613</v>
+        <v>0.0005395572650312627</v>
       </c>
       <c r="T2">
-        <v>0.02710251114301613</v>
+        <v>0.0005395572650312626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,52 +587,176 @@
         <v>21</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.03644533333333334</v>
+      </c>
+      <c r="H3">
+        <v>0.109336</v>
+      </c>
+      <c r="I3">
+        <v>0.005561955322140003</v>
+      </c>
+      <c r="J3">
+        <v>0.005561955322140003</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>36.61711466666667</v>
-      </c>
-      <c r="H3">
-        <v>109.851344</v>
-      </c>
-      <c r="I3">
-        <v>0.9728974888569838</v>
-      </c>
-      <c r="J3">
-        <v>0.9728974888569839</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.5185723333333333</v>
+      </c>
+      <c r="N3">
+        <v>1.555717</v>
+      </c>
+      <c r="O3">
+        <v>0.9029914420773046</v>
+      </c>
+      <c r="P3">
+        <v>0.9029914420773046</v>
+      </c>
+      <c r="Q3">
+        <v>0.01889954154577778</v>
+      </c>
+      <c r="R3">
+        <v>0.170095873912</v>
+      </c>
+      <c r="S3">
+        <v>0.00502239805710874</v>
+      </c>
+      <c r="T3">
+        <v>0.00502239805710874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>6.516166333333334</v>
+      </c>
+      <c r="H4">
+        <v>19.548499</v>
+      </c>
+      <c r="I4">
+        <v>0.99443804467786</v>
+      </c>
+      <c r="J4">
+        <v>0.99443804467786</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M3">
-        <v>0.1321586666666667</v>
-      </c>
-      <c r="N3">
-        <v>0.396476</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>4.839269051527111</v>
-      </c>
-      <c r="R3">
-        <v>43.553421463744</v>
-      </c>
-      <c r="S3">
-        <v>0.9728974888569838</v>
-      </c>
-      <c r="T3">
-        <v>0.9728974888569839</v>
+      <c r="M4">
+        <v>0.05571033333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.167131</v>
+      </c>
+      <c r="O4">
+        <v>0.09700855792269546</v>
+      </c>
+      <c r="P4">
+        <v>0.09700855792269544</v>
+      </c>
+      <c r="Q4">
+        <v>0.3630177984854445</v>
+      </c>
+      <c r="R4">
+        <v>3.267160186369</v>
+      </c>
+      <c r="S4">
+        <v>0.0964690006576642</v>
+      </c>
+      <c r="T4">
+        <v>0.09646900065766419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.516166333333334</v>
+      </c>
+      <c r="H5">
+        <v>19.548499</v>
+      </c>
+      <c r="I5">
+        <v>0.99443804467786</v>
+      </c>
+      <c r="J5">
+        <v>0.99443804467786</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5185723333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.555717</v>
+      </c>
+      <c r="O5">
+        <v>0.9029914420773046</v>
+      </c>
+      <c r="P5">
+        <v>0.9029914420773046</v>
+      </c>
+      <c r="Q5">
+        <v>3.379103579864778</v>
+      </c>
+      <c r="R5">
+        <v>30.411932218783</v>
+      </c>
+      <c r="S5">
+        <v>0.897969044020196</v>
+      </c>
+      <c r="T5">
+        <v>0.897969044020196</v>
       </c>
     </row>
   </sheetData>
